--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\S2\Studi Independen\lateral pile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1817B9AF-7CB7-4623-AFDB-9396A73D776D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF1E46-F5E1-4766-8E98-6135719CD6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30900" yWindow="3105" windowWidth="17760" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -58,8 +58,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2150,6 +2152,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8066-4631-A9F4-BF1B16222ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$X$17:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$W$17:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CA2-486B-B023-4E7E2866B81C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$AA$17:$AA$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.332647752467281E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39307796654698801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93388860694368803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.052328520733202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$AB$17:$AB$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58AC-4484-B1BB-EE9D43993AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3817,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8241,47 +8407,126 @@
         <v>-0.70994898158266395</v>
       </c>
     </row>
-    <row r="17" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T18">
         <v>10</v>
       </c>
       <c r="U18">
         <v>1.8710348523898899</v>
       </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>9.3326477524672806E-5</v>
+      </c>
+      <c r="AA18" s="2">
+        <f>1000*Z18</f>
+        <v>9.332647752467281E-2</v>
+      </c>
+      <c r="AB18">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T19">
         <v>20</v>
       </c>
       <c r="U19">
         <v>3.8283853636151299</v>
       </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>0.185</v>
+      </c>
+      <c r="Z19">
+        <v>3.9307796654698799E-4</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" ref="AA19:AA21" si="8">1000*Z19</f>
+        <v>0.39307796654698801</v>
+      </c>
+      <c r="AB19">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T20">
         <v>30</v>
       </c>
       <c r="U20">
         <v>5.9449679403657001</v>
       </c>
+      <c r="W20">
+        <v>50</v>
+      </c>
+      <c r="X20">
+        <v>3.2010000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>9.3388860694368803E-4</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="8"/>
+        <v>0.93388860694368803</v>
+      </c>
+      <c r="AB20">
+        <v>30</v>
+      </c>
     </row>
-    <row r="21" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T21">
         <v>40</v>
       </c>
       <c r="U21">
         <v>8.2899260102641499</v>
       </c>
+      <c r="W21">
+        <v>100</v>
+      </c>
+      <c r="X21">
+        <v>11.387</v>
+      </c>
+      <c r="Z21">
+        <v>1.7052328520733202E-2</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="8"/>
+        <v>17.052328520733202</v>
+      </c>
+      <c r="AB21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="22" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T22">
         <v>50</v>
       </c>
@@ -8289,7 +8534,7 @@
         <v>10.936413725097399</v>
       </c>
     </row>
-    <row r="23" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T23">
         <v>60</v>
       </c>
@@ -8297,7 +8542,7 @@
         <v>13.9679750043497</v>
       </c>
     </row>
-    <row r="24" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T24">
         <v>70</v>
       </c>
@@ -8305,7 +8550,7 @@
         <v>17.485349122534</v>
       </c>
     </row>
-    <row r="25" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T25">
         <v>80</v>
       </c>
@@ -8313,7 +8558,7 @@
         <v>21.615120751200397</v>
       </c>
     </row>
-    <row r="26" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T26">
         <v>90</v>
       </c>
@@ -8321,7 +8566,7 @@
         <v>26.521915385640099</v>
       </c>
     </row>
-    <row r="27" spans="20:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="20:28" x14ac:dyDescent="0.35">
       <c r="T27">
         <v>100</v>
       </c>
